--- a/Marendeng.xlsx
+++ b/Marendeng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technician\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E355E2-B5F0-413C-AD8C-9BCD5F59289A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CF082E-F848-4306-B5C8-89C5D824BA4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>No</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Saldo awal</t>
+  </si>
+  <si>
+    <t>menambahkan keterangan lunas</t>
   </si>
 </sst>
 </file>
@@ -378,36 +381,6 @@
     <xf numFmtId="17" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -435,6 +408,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +721,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L31"/>
+  <dimension ref="A2:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,68 +741,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
       <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="33">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="38">
         <v>5000000</v>
       </c>
       <c r="C5" s="7">
@@ -831,10 +834,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="33">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="7">
         <v>43471</v>
       </c>
@@ -864,10 +867,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="33">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="7">
         <v>43505</v>
       </c>
@@ -897,10 +900,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="9">
         <v>43534</v>
       </c>
@@ -930,10 +933,10 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="33">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="9">
         <v>43564</v>
       </c>
@@ -963,10 +966,10 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="34">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="9">
         <v>43593</v>
       </c>
@@ -987,11 +990,11 @@
         <f>G10-F10</f>
         <v>1200000</v>
       </c>
-      <c r="I10" s="32" t="str">
+      <c r="I10" s="22" t="str">
         <f>IF(I9-H10&lt;=0,"LUNAS")</f>
         <v>LUNAS</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
@@ -1003,7 +1006,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="G12" s="30">
+      <c r="G12" s="20">
         <v>200000</v>
       </c>
     </row>
@@ -1017,10 +1020,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="37"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -1028,7 +1031,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="16">
-        <f>I5</f>
+        <f t="shared" ref="C15:C20" si="0">I5</f>
         <v>4070000</v>
       </c>
       <c r="L15" s="1"/>
@@ -1038,7 +1041,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="16">
-        <f>I6</f>
+        <f t="shared" si="0"/>
         <v>3000000</v>
       </c>
     </row>
@@ -1047,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="16">
-        <f>I7</f>
+        <f t="shared" si="0"/>
         <v>2700000</v>
       </c>
     </row>
@@ -1056,7 +1059,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="16">
-        <f>I8</f>
+        <f t="shared" si="0"/>
         <v>2200000</v>
       </c>
     </row>
@@ -1065,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="16">
-        <f>I9</f>
+        <f t="shared" si="0"/>
         <v>1200000</v>
       </c>
     </row>
@@ -1074,173 +1077,182 @@
         <v>21</v>
       </c>
       <c r="C20" s="16" t="str">
-        <f>I10</f>
+        <f t="shared" si="0"/>
         <v>LUNAS</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="25">
         <v>4323927</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="28">
         <v>0.05</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="26">
         <v>40860</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="29">
         <f>C23*D23</f>
         <v>216196.35</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="39">
+      <c r="C24" s="29">
         <f>C23+F23</f>
         <v>4540123.3499999996</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="28">
         <v>0.05</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="26">
         <v>41226</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="29">
         <f>C24*D24</f>
         <v>227006.16749999998</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
-      <c r="C25" s="39">
-        <f t="shared" ref="C25:C31" si="0">C24+F24</f>
+      <c r="C25" s="29">
+        <f t="shared" ref="C25:C31" si="1">C24+F24</f>
         <v>4767129.5175000001</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="28">
         <v>0.05</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="26">
         <v>41591</v>
       </c>
-      <c r="F25" s="39">
-        <f t="shared" ref="F25:F31" si="1">C25*D25</f>
+      <c r="F25" s="29">
+        <f t="shared" ref="F25:F31" si="2">C25*D25</f>
         <v>238356.475875</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
-      <c r="C26" s="39">
-        <f t="shared" si="0"/>
+      <c r="C26" s="29">
+        <f t="shared" si="1"/>
         <v>5005485.9933749996</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="28">
         <v>0.05</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="26">
         <v>41956</v>
       </c>
-      <c r="F26" s="39">
-        <f t="shared" si="1"/>
+      <c r="F26" s="29">
+        <f t="shared" si="2"/>
         <v>250274.29966875</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
-      <c r="C27" s="39">
-        <f t="shared" si="0"/>
+      <c r="C27" s="29">
+        <f t="shared" si="1"/>
         <v>5255760.2930437494</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="28">
         <v>0.05</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="26">
         <v>42321</v>
       </c>
-      <c r="F27" s="39">
-        <f t="shared" si="1"/>
+      <c r="F27" s="29">
+        <f t="shared" si="2"/>
         <v>262788.01465218747</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
-      <c r="C28" s="39">
-        <f t="shared" si="0"/>
+      <c r="C28" s="29">
+        <f t="shared" si="1"/>
         <v>5518548.3076959364</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="28">
         <v>0.05</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="26">
         <v>42687</v>
       </c>
-      <c r="F28" s="39">
-        <f t="shared" si="1"/>
+      <c r="F28" s="29">
+        <f t="shared" si="2"/>
         <v>275927.41538479686</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="39">
-        <f t="shared" si="0"/>
+      <c r="C29" s="29">
+        <f t="shared" si="1"/>
         <v>5794475.7230807329</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="28">
         <v>0.05</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="26">
         <v>43052</v>
       </c>
-      <c r="F29" s="39">
-        <f t="shared" si="1"/>
+      <c r="F29" s="29">
+        <f t="shared" si="2"/>
         <v>289723.78615403664</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
-      <c r="C30" s="39">
-        <f t="shared" si="0"/>
+      <c r="C30" s="29">
+        <f t="shared" si="1"/>
         <v>6084199.5092347693</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="28">
         <v>0.05</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="26">
         <v>43417</v>
       </c>
-      <c r="F30" s="39">
-        <f t="shared" si="1"/>
+      <c r="F30" s="29">
+        <f t="shared" si="2"/>
         <v>304209.97546173848</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
-      <c r="C31" s="39">
-        <f t="shared" si="0"/>
+      <c r="C31" s="29">
+        <f t="shared" si="1"/>
         <v>6388409.4846965075</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="28">
         <v>0.05</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="26">
         <v>43782</v>
       </c>
-      <c r="F31" s="39">
-        <f t="shared" si="1"/>
+      <c r="F31" s="29">
+        <f t="shared" si="2"/>
         <v>319420.47423482541</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B10"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
@@ -1248,10 +1260,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
